--- a/Database/Data_20150722/Class.xlsx
+++ b/Database/Data_20150722/Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="83">
   <si>
     <t>IS10801</t>
   </si>
@@ -133,9 +133,6 @@
     <t>IA1001</t>
   </si>
   <si>
-    <t>JPN1001 &amp; JPN1002</t>
-  </si>
-  <si>
     <t>SE1004</t>
   </si>
   <si>
@@ -190,72 +187,6 @@
     <t>BIS</t>
   </si>
   <si>
-    <t>FIN0801&amp;MKT0801</t>
-  </si>
-  <si>
-    <t>COB0801</t>
-  </si>
-  <si>
-    <t>COF0801</t>
-  </si>
-  <si>
-    <t>MKT0802</t>
-  </si>
-  <si>
-    <t>COF0802&amp;COB0802&amp;FIN0802</t>
-  </si>
-  <si>
-    <t>FIN0803</t>
-  </si>
-  <si>
-    <t>MKT0803</t>
-  </si>
-  <si>
-    <t>COF0803</t>
-  </si>
-  <si>
-    <t>COF0804</t>
-  </si>
-  <si>
-    <t>MKT0902</t>
-  </si>
-  <si>
-    <t>FIN0902</t>
-  </si>
-  <si>
-    <t>COF0902</t>
-  </si>
-  <si>
-    <t>MKT0903</t>
-  </si>
-  <si>
-    <t>FIN0903</t>
-  </si>
-  <si>
-    <t>COF0903&amp;FIN0903</t>
-  </si>
-  <si>
-    <t>BA1001</t>
-  </si>
-  <si>
-    <t>FB1001</t>
-  </si>
-  <si>
-    <t>BA1002&amp;FB1002</t>
-  </si>
-  <si>
-    <t>IBA1002</t>
-  </si>
-  <si>
-    <t>BA1003</t>
-  </si>
-  <si>
-    <t>FB1003</t>
-  </si>
-  <si>
-    <t>IBA1003</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -284,6 +215,54 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>JPN1001</t>
+  </si>
+  <si>
+    <t>JPN1002</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>IS1</t>
+  </si>
+  <si>
+    <t>IS2</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES2</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>IA1</t>
+  </si>
+  <si>
+    <t>IA2</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>JPN</t>
   </si>
 </sst>
 </file>
@@ -652,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,28 +646,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,13 +675,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -713,13 +698,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -730,13 +721,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -747,13 +744,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -764,13 +767,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -781,13 +790,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -798,13 +813,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -815,13 +836,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -832,13 +859,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -849,13 +882,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -866,13 +905,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -883,13 +928,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -900,13 +951,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -917,13 +974,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -934,13 +997,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -951,13 +1020,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -968,13 +1043,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -985,13 +1066,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1002,13 +1089,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1019,13 +1112,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -1036,13 +1135,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
       </c>
       <c r="F22">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -1053,13 +1158,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
       </c>
       <c r="F23">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1070,13 +1181,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
       </c>
       <c r="F24">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1087,13 +1204,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1104,13 +1227,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H26">
         <v>7</v>
@@ -1121,13 +1247,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
       </c>
       <c r="F27">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -1138,13 +1267,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
       </c>
       <c r="F28">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H28">
         <v>9</v>
@@ -1155,13 +1287,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
       </c>
       <c r="F29">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1172,13 +1307,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H30">
         <v>11</v>
@@ -1189,7 +1327,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
@@ -1200,13 +1338,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1217,13 +1361,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
       </c>
       <c r="F33">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1234,13 +1384,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
       </c>
       <c r="F34">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -1251,13 +1407,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
       </c>
       <c r="F35">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1268,13 +1430,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1285,13 +1450,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1302,13 +1470,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
       </c>
       <c r="F38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -1319,13 +1490,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
       </c>
       <c r="F39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1336,13 +1513,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
       </c>
       <c r="F40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1350,16 +1533,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1367,101 +1556,128 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
         <v>82</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
       </c>
       <c r="F46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
       </c>
       <c r="F47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1469,135 +1685,165 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
       </c>
       <c r="F48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
       </c>
       <c r="F49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
       </c>
       <c r="F50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
       </c>
       <c r="F52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H52">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
       </c>
       <c r="F55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -1605,50 +1851,68 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
       </c>
       <c r="F56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
       </c>
       <c r="F57">
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
       </c>
       <c r="F58">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -1656,387 +1920,36 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60">
-        <v>8</v>
-      </c>
-      <c r="G60" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61">
-        <v>8</v>
-      </c>
-      <c r="G61" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62">
-        <v>8</v>
-      </c>
-      <c r="G62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63">
-        <v>8</v>
-      </c>
-      <c r="G63" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64">
-        <v>8</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65">
-        <v>8</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66">
-        <v>8</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="E60" t="s">
         <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68">
-        <v>8</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
-      <c r="H68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69">
-        <v>9</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70">
-        <v>9</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72">
-        <v>9</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74">
-        <v>9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F79">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="F80">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Data_20150722/Class.xlsx
+++ b/Database/Data_20150722/Class.xlsx
@@ -563,14 +563,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
